--- a/不具合報告一覧1.xlsx
+++ b/不具合報告一覧1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ユーザー\nishio\Documents\02.MITSUBISHI\90.MIITS 客セ\不具合報告\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ユーザー\nishio\Documents\91.SSH-SAVE\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{65123BA0-10EB-47E0-BC7D-14C59C1B5877}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{05CCF546-8FF8-40A0-8E6F-C30ED2E638F2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="3570" windowHeight="4980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6086,6 +6086,7 @@
   <si>
     <t xml:space="preserve">Ver.不明
 先日（K098　7/24　ID:5144388）の報告は不具合でないことを回答しています。
+2018/08/22  14:10
 </t>
     <rPh sb="4" eb="6">
       <t>フメイ</t>

--- a/不具合報告一覧1.xlsx
+++ b/不具合報告一覧1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ユーザー\nishio\Documents\91.SSH-SAVE\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{05CCF546-8FF8-40A0-8E6F-C30ED2E638F2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D3A85944-51A2-4075-8A12-C5172E5CD2A5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="3570" windowHeight="4980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6086,7 +6086,7 @@
   <si>
     <t xml:space="preserve">Ver.不明
 先日（K098　7/24　ID:5144388）の報告は不具合でないことを回答しています。
-2018/08/22  14:10
+2018/08/22  14:10 No.3
 </t>
     <rPh sb="4" eb="6">
       <t>フメイ</t>

--- a/不具合報告一覧1.xlsx
+++ b/不具合報告一覧1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ユーザー\nishio\Documents\91.SSH-SAVE\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ユーザー\nishio\Documents\02.MITSUBISHI\90.MIITS 客セ\不具合報告\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D3A85944-51A2-4075-8A12-C5172E5CD2A5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9A605FCF-0E32-4F6C-A50F-4FA5FC2DC436}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="3570" windowHeight="4980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$E$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$E$103</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$E$102</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
   </definedNames>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="293">
   <si>
     <t>職制間転送が外線として入電した</t>
   </si>
@@ -6086,7 +6086,6 @@
   <si>
     <t xml:space="preserve">Ver.不明
 先日（K098　7/24　ID:5144388）の報告は不具合でないことを回答しています。
-2018/08/22  14:10 No.3
 </t>
     <rPh sb="4" eb="6">
       <t>フメイ</t>
@@ -6102,6 +6101,55 @@
     </rPh>
     <rPh sb="44" eb="46">
       <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>K101</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t xml:space="preserve">発生日時：2018/4/9 10:39:55
+録音時間取得 失敗エラー_横展開確認結果
+JYO-2018-K069において過去データ調査を実施した際にみつかりました。
+JYO-2018-K069の不具合連絡書内で別途不具合連絡書を起票するとなりましたので、以下の通り起票します。
+【不具合内容】
+　録音時間取得 失敗のエラーとなっており、対象の通話録音を聴くことが出来ない。
+ログを参照する限り、録音時間取得と録音転送が逆となっており、処理シーケンスがおかしくなっている状況が見受けられました。
+①．21 1 194148 20180409 103955 KA3055  入電画面（客セ）(VTB010M-C)
+　　 　REC RecTransfer 録音転送  b3B681udlF 
+②．21 1 194149 20180409 103955 KA3055  入電画面（客セ）(VTB010M-C) 
+　　 　REC RecTerminate 録音停止　 b3B681udlF 
+③．21 1 194150 20180409 103955 KA3055  入電画面（客セ）(VTB010M-C)
+　　 　REC StartTime,RecTime 録音時間取得 失敗 b3B681udlF 
+</t>
+    <rPh sb="0" eb="2">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver.2017/02/06 15:00
+10:39:51 jOnDisconnect 回線切断
+10:39:51 jcRecordSw:Mode=2 → setTimeout('jRecStop()',30)
+　　　　　　　　　　　　　　  30ms後に「録音停止」へ
+10:39:51 jcRecordSw:Mode=3 → setTimeout('jRecTransfer()',30)
+　　　　　　　　　　　　　　  30ms後に「録音転送」へ
+の順番に処理する様に命令を出しているが
+タイマー処理が正常に稼働しなかったのか、原因不明だが、実際には
+10:39:55 jRecTransfer「録音転送」
+10:39:55 jRecStop 「録音停止」
+の順番に処理が走った
+</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ＳＣ　柴田</t>
+    <rPh sb="3" eb="5">
+      <t>シバタ</t>
     </rPh>
     <phoneticPr fontId="17"/>
   </si>
@@ -7486,6 +7534,220 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1690687</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>2214563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5635625</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>3302000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5BFC476-9AB8-4B24-9403-980361F784ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9794875" y="255135063"/>
+          <a:ext cx="3944938" cy="1087437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>30ms</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>待っている間に、「録音停止」処理が終了する筈が、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>終了出来ず、その状態で「録音転送」処理が始まり、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>処理の逆転が起きた。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4381500</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>777875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4738687</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>1127125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="楕円 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA225D1-1FC2-4210-B09E-ED7B9043071B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12485688" y="253698375"/>
+          <a:ext cx="357187" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3663156</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>1127125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4560094</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>2214563</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76CFBF82-A985-4662-B51B-CB46B95BF29A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="4"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11767344" y="254047625"/>
+          <a:ext cx="896938" cy="1087438"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7789,11 +8051,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9425,12 +9687,22 @@
         <v>288</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="2"/>
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
+    <row r="103" spans="1:5" ht="273" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2"/>
@@ -9446,8 +9718,15 @@
       <c r="D105" s="17"/>
       <c r="E105" s="17"/>
     </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="2"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:E102" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:E103" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="17"/>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.39370078740157483" header="0.31496062992125984" footer="0"/>
   <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
